--- a/Fund. of Engineering/Beam Bending Lab Data.xlsx
+++ b/Fund. of Engineering/Beam Bending Lab Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\College-Work\Fund. of Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8ACC8-3FEF-4DA3-B761-6F41F1CBA1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B1D2E-05D1-4973-86FC-8C17BCC53C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9192" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beam Bending Lab Worksheet" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="128">
   <si>
     <t>in</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>~146 GPa</t>
+  </si>
+  <si>
+    <t>Average Error</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,7 +1448,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="6" applyAlignment="1">
@@ -1454,40 +1466,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1499,17 +1491,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3970,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3994,14 +4002,14 @@
       <c r="F1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
@@ -4062,10 +4070,10 @@
       <c r="B8" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="144"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9"/>
@@ -4074,15 +4082,15 @@
     </row>
     <row r="10" spans="2:10" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33"/>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
@@ -4143,9 +4151,9 @@
       <c r="G13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" s="47" t="s">
@@ -4160,9 +4168,9 @@
       <c r="G14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" s="47" t="s">
@@ -4177,9 +4185,9 @@
       <c r="G15" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D16" s="47" t="s">
@@ -4194,9 +4202,9 @@
       <c r="G16" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
@@ -4210,14 +4218,14 @@
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="33"/>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D19" s="58" t="s">
@@ -4226,10 +4234,10 @@
       <c r="E19" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="146"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="59" t="s">
         <v>80</v>
       </c>
@@ -4244,10 +4252,10 @@
       <c r="E20" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="133" t="s">
+      <c r="F20" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="54">
         <f>F15*F16^3/12</f>
         <v>1.1190079166666671E-4</v>
@@ -4264,10 +4272,10 @@
       <c r="E21" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="119"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="93" t="s">
         <v>90</v>
       </c>
@@ -4286,17 +4294,17 @@
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
@@ -4304,13 +4312,13 @@
     </row>
     <row r="24" spans="1:14" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="121" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="107" t="s">
@@ -4337,9 +4345,9 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="88" t="s">
         <v>95</v>
       </c>
@@ -4356,7 +4364,9 @@
         <v>18</v>
       </c>
       <c r="J25" s="108"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -4389,7 +4399,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="82"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="149">
+        <f>AVERAGE(J27:J36)</f>
+        <v>0.28509247506850549</v>
+      </c>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -4428,8 +4441,6 @@
         <f>(H27-I27)/I27</f>
         <v>0.15501158679533664</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
@@ -4982,10 +4993,10 @@
         <v>100</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="126"/>
+      <c r="E59" s="122"/>
       <c r="F59" s="94"/>
       <c r="G59" s="28"/>
       <c r="H59" s="13"/>
@@ -5001,22 +5012,22 @@
       <c r="J60" s="94"/>
     </row>
     <row r="61" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="120" t="s">
+      <c r="B61" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
     </row>
     <row r="62" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="122"/>
+      <c r="C62" s="144"/>
       <c r="D62" s="59" t="s">
         <v>78</v>
       </c>
@@ -5035,10 +5046,10 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="121"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="48" t="s">
         <v>6</v>
       </c>
@@ -5060,10 +5071,10 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="121"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="48" t="s">
         <v>7</v>
       </c>
@@ -5073,15 +5084,15 @@
       <c r="F64" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="138"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="139"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="136"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B65" s="121" t="s">
+      <c r="B65" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="121"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="48" t="s">
         <v>10</v>
       </c>
@@ -5091,15 +5102,15 @@
       <c r="F65" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="139"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="136"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="121"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="48" t="s">
         <v>124</v>
       </c>
@@ -5109,15 +5120,15 @@
       <c r="F66" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="139"/>
+      <c r="G66" s="135"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="136"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="121"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="48" t="s">
         <v>70</v>
       </c>
@@ -5127,9 +5138,9 @@
       <c r="F67" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="142"/>
+      <c r="G67" s="138"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="139"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" s="33"/>
@@ -5144,13 +5155,13 @@
     </row>
     <row r="69" spans="2:18" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="33"/>
-      <c r="D69" s="120" t="s">
+      <c r="D69" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
       <c r="I69" s="118"/>
       <c r="J69" s="118"/>
       <c r="K69" s="118"/>
@@ -5220,26 +5231,26 @@
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="120"/>
-      <c r="I74" s="120"/>
-      <c r="J74" s="120"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="123"/>
     </row>
     <row r="75" spans="2:18" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="123" t="s">
+      <c r="D75" s="121" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="107" t="s">
@@ -5267,9 +5278,9 @@
       <c r="R75" s="45"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
       <c r="E76" s="57" t="s">
         <v>95</v>
       </c>
@@ -5286,6 +5297,9 @@
         <v>18</v>
       </c>
       <c r="J76" s="105"/>
+      <c r="K76" s="150" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B77" s="77" t="s">
@@ -5315,6 +5329,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="82"/>
+      <c r="K77" s="148">
+        <f>AVERAGE(J78:J87)</f>
+        <v>0.21486609016433347</v>
+      </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B78" s="65">
@@ -5854,10 +5872,10 @@
         <v>73</v>
       </c>
       <c r="C109" s="26"/>
-      <c r="D109" s="126" t="s">
+      <c r="D109" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="E109" s="126"/>
+      <c r="E109" s="122"/>
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
       <c r="H109" s="13"/>
@@ -5869,22 +5887,22 @@
       <c r="F110" s="94"/>
     </row>
     <row r="111" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="120"/>
-      <c r="F111" s="120"/>
-      <c r="G111" s="120"/>
-      <c r="H111" s="120"/>
-      <c r="I111" s="120"/>
+      <c r="C111" s="123"/>
+      <c r="D111" s="123"/>
+      <c r="E111" s="123"/>
+      <c r="F111" s="123"/>
+      <c r="G111" s="123"/>
+      <c r="H111" s="123"/>
+      <c r="I111" s="123"/>
     </row>
     <row r="112" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="122" t="s">
+      <c r="B112" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="122"/>
+      <c r="C112" s="144"/>
       <c r="D112" s="59" t="s">
         <v>78</v>
       </c>
@@ -5902,11 +5920,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B113" s="121" t="s">
+    <row r="113" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B113" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="121"/>
+      <c r="C113" s="124"/>
       <c r="D113" s="104" t="s">
         <v>6</v>
       </c>
@@ -5927,11 +5945,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="121" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="121"/>
+      <c r="C114" s="124"/>
       <c r="D114" s="104" t="s">
         <v>7</v>
       </c>
@@ -5941,15 +5959,15 @@
       <c r="F114" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="134"/>
-      <c r="H114" s="135"/>
-      <c r="I114" s="136"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="121" t="s">
+      <c r="G114" s="131"/>
+      <c r="H114" s="132"/>
+      <c r="I114" s="133"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="121"/>
+      <c r="C115" s="124"/>
       <c r="D115" s="104" t="s">
         <v>10</v>
       </c>
@@ -5959,15 +5977,15 @@
       <c r="F115" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G115" s="137"/>
-      <c r="H115" s="138"/>
-      <c r="I115" s="139"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="121" t="s">
+      <c r="G115" s="134"/>
+      <c r="H115" s="135"/>
+      <c r="I115" s="136"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="121"/>
+      <c r="C116" s="124"/>
       <c r="D116" s="104" t="s">
         <v>124</v>
       </c>
@@ -5977,15 +5995,15 @@
       <c r="F116" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="137"/>
-      <c r="H116" s="138"/>
-      <c r="I116" s="139"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="121" t="s">
+      <c r="G116" s="134"/>
+      <c r="H116" s="135"/>
+      <c r="I116" s="136"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="121"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="104" t="s">
         <v>70</v>
       </c>
@@ -5995,28 +6013,28 @@
       <c r="F117" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G117" s="140"/>
-      <c r="H117" s="141"/>
-      <c r="I117" s="142"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G117" s="137"/>
+      <c r="H117" s="138"/>
+      <c r="I117" s="139"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="33"/>
       <c r="F118" s="94"/>
       <c r="I118" s="94"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D119" s="120" t="s">
+    <row r="119" spans="2:11" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D119" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="120"/>
-      <c r="F119" s="120"/>
-      <c r="G119" s="120"/>
-      <c r="H119" s="120"/>
-      <c r="I119" s="120"/>
+      <c r="E119" s="123"/>
+      <c r="F119" s="123"/>
+      <c r="G119" s="123"/>
+      <c r="H119" s="123"/>
+      <c r="I119" s="123"/>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B120"/>
       <c r="D120" s="58" t="s">
         <v>77</v>
@@ -6024,10 +6042,10 @@
       <c r="E120" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F120" s="131" t="s">
+      <c r="F120" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="G120" s="132"/>
+      <c r="G120" s="130"/>
       <c r="H120" s="59" t="s">
         <v>80</v>
       </c>
@@ -6036,7 +6054,7 @@
       </c>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B121"/>
       <c r="D121" s="47" t="s">
         <v>85</v>
@@ -6044,10 +6062,10 @@
       <c r="E121" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="F121" s="133" t="s">
+      <c r="F121" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="G121" s="133"/>
+      <c r="G121" s="128"/>
       <c r="H121" s="48">
         <f>(E116*E117^3)/12</f>
         <v>1.6206749999999996E-4</v>
@@ -6057,7 +6075,7 @@
       </c>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B122"/>
       <c r="D122" s="47" t="s">
         <v>86</v>
@@ -6065,10 +6083,10 @@
       <c r="E122" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F122" s="133" t="s">
+      <c r="F122" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="G122" s="133"/>
+      <c r="G122" s="128"/>
       <c r="H122" s="93" t="s">
         <v>92</v>
       </c>
@@ -6077,7 +6095,7 @@
       </c>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="D123" s="45"/>
       <c r="E123" s="85"/>
@@ -6086,27 +6104,27 @@
       <c r="H123" s="46"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="120" t="s">
+    <row r="124" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="120"/>
-      <c r="F124" s="120"/>
-      <c r="G124" s="120"/>
-      <c r="H124" s="120"/>
-      <c r="I124" s="120"/>
+      <c r="C124" s="123"/>
+      <c r="D124" s="123"/>
+      <c r="E124" s="123"/>
+      <c r="F124" s="123"/>
+      <c r="G124" s="123"/>
+      <c r="H124" s="123"/>
+      <c r="I124" s="123"/>
       <c r="J124" s="101"/>
     </row>
-    <row r="125" spans="2:10" s="106" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="123" t="s">
+    <row r="125" spans="2:11" s="106" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C125" s="123" t="s">
+      <c r="C125" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="123" t="s">
+      <c r="D125" s="121" t="s">
         <v>4</v>
       </c>
       <c r="E125" s="107" t="s">
@@ -6129,10 +6147,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="124"/>
-      <c r="C126" s="124"/>
-      <c r="D126" s="124"/>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="145"/>
+      <c r="C126" s="145"/>
+      <c r="D126" s="145"/>
       <c r="E126" s="75" t="s">
         <v>95</v>
       </c>
@@ -6149,8 +6167,11 @@
         <v>18</v>
       </c>
       <c r="J126" s="103"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K126" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" s="77" t="s">
         <v>43</v>
       </c>
@@ -6179,8 +6200,12 @@
         <v>0</v>
       </c>
       <c r="J127" s="82"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K127" s="148">
+        <f>AVERAGE(J128:J137)</f>
+        <v>-0.44204827336140406</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" s="65">
         <v>1</v>
       </c>
@@ -6779,11 +6804,11 @@
         <v>74</v>
       </c>
       <c r="C161" s="26"/>
-      <c r="D161" s="126" t="s">
+      <c r="D161" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="126"/>
-      <c r="F161" s="126"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="122"/>
       <c r="G161" s="1"/>
       <c r="H161" s="13"/>
       <c r="I161" s="6"/>
@@ -6791,12 +6816,12 @@
     </row>
     <row r="163" spans="2:12" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="29"/>
-      <c r="D163" s="120" t="s">
+      <c r="D163" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="E163" s="120"/>
-      <c r="F163" s="120"/>
-      <c r="G163" s="120"/>
+      <c r="E163" s="123"/>
+      <c r="F163" s="123"/>
+      <c r="G163" s="123"/>
     </row>
     <row r="164" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B164" s="12"/>
@@ -6875,13 +6900,13 @@
     </row>
     <row r="170" spans="2:12" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B170" s="33"/>
-      <c r="D170" s="120" t="s">
+      <c r="D170" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="120"/>
-      <c r="F170" s="120"/>
-      <c r="G170" s="120"/>
-      <c r="H170" s="120"/>
+      <c r="E170" s="123"/>
+      <c r="F170" s="123"/>
+      <c r="G170" s="123"/>
+      <c r="H170" s="123"/>
     </row>
     <row r="171" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D171" s="58" t="s">
@@ -6953,28 +6978,28 @@
       <c r="L174" s="92"/>
     </row>
     <row r="175" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="120" t="s">
+      <c r="B175" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C175" s="120"/>
-      <c r="D175" s="120"/>
-      <c r="E175" s="120"/>
-      <c r="F175" s="120"/>
-      <c r="G175" s="120"/>
-      <c r="H175" s="120"/>
+      <c r="C175" s="123"/>
+      <c r="D175" s="123"/>
+      <c r="E175" s="123"/>
+      <c r="F175" s="123"/>
+      <c r="G175" s="123"/>
+      <c r="H175" s="123"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="98"/>
       <c r="L175" s="92"/>
     </row>
     <row r="176" spans="2:12" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="124" t="s">
+      <c r="B176" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="C176" s="124" t="s">
+      <c r="C176" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="124" t="s">
+      <c r="D176" s="145" t="s">
         <v>4</v>
       </c>
       <c r="E176" s="107" t="s">
@@ -6996,9 +7021,9 @@
       <c r="L176" s="92"/>
     </row>
     <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="125"/>
-      <c r="C177" s="125"/>
-      <c r="D177" s="125"/>
+      <c r="B177" s="146"/>
+      <c r="C177" s="146"/>
+      <c r="D177" s="146"/>
       <c r="E177" s="109" t="s">
         <v>95</v>
       </c>
@@ -7481,10 +7506,10 @@
       <c r="B211" s="39"/>
       <c r="C211" s="44"/>
       <c r="D211" s="44"/>
-      <c r="E211" s="127" t="s">
+      <c r="E211" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="F211" s="128"/>
+      <c r="F211" s="141"/>
       <c r="G211" s="117">
         <v>7.46E-2</v>
       </c>
@@ -7492,11 +7517,11 @@
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="2:11" s="94" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E212" s="129" t="s">
+      <c r="E212" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="F212" s="130"/>
-      <c r="G212" s="147">
+      <c r="F212" s="143"/>
+      <c r="G212" s="119">
         <f>(D188*(F166^2)*(3*F165-F166))/(6*H188*G172)</f>
         <v>21237378.184718572</v>
       </c>
@@ -7815,6 +7840,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="G114:I117"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="G64:I67"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -7831,42 +7892,6 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="G114:I117"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="G64:I67"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Fund. of Engineering/Beam Bending Lab Data.xlsx
+++ b/Fund. of Engineering/Beam Bending Lab Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\College-Work\Fund. of Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B1D2E-05D1-4973-86FC-8C17BCC53C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1B6246-9FE6-4C8C-9D93-341DE5E25BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9192" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beam Bending Lab Worksheet" sheetId="4" r:id="rId1"/>
@@ -1451,35 +1451,54 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1491,34 +1510,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1863,7 +1863,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Aluminum Cantilever Beam</a:t>
+              <a:t>Aluminum Rectangle Beam</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2291,7 +2291,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Copper Cantilever Beam</a:t>
+              <a:t>Copper Rectangle Beam</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3314,7 +3314,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>Numbers say "Carbon Fiber reinforced Plastic", Logic says "Grey Cast Iron".</a:t>
+            <a:t>Numbers say Carbon Fiber reinforced Plastic, Logic says Steel.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3978,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C199" zoomScale="103" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
@@ -4002,14 +4002,14 @@
       <c r="F1" s="94"/>
     </row>
     <row r="2" spans="2:10" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
@@ -4070,10 +4070,10 @@
       <c r="B8" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="125"/>
+      <c r="E8" s="148"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9"/>
@@ -4082,15 +4082,15 @@
     </row>
     <row r="10" spans="2:10" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33"/>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
@@ -4151,9 +4151,9 @@
       <c r="G13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" s="47" t="s">
@@ -4168,9 +4168,9 @@
       <c r="G14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" s="47" t="s">
@@ -4185,9 +4185,9 @@
       <c r="G15" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D16" s="47" t="s">
@@ -4202,9 +4202,9 @@
       <c r="G16" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
@@ -4218,14 +4218,14 @@
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="33"/>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D19" s="58" t="s">
@@ -4234,10 +4234,10 @@
       <c r="E19" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="127" t="s">
+      <c r="F19" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="127"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="59" t="s">
         <v>80</v>
       </c>
@@ -4252,10 +4252,10 @@
       <c r="E20" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="128"/>
+      <c r="G20" s="137"/>
       <c r="H20" s="54">
         <f>F15*F16^3/12</f>
         <v>1.1190079166666671E-4</v>
@@ -4272,10 +4272,10 @@
       <c r="E21" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="147" t="s">
+      <c r="F21" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="147"/>
+      <c r="G21" s="123"/>
       <c r="H21" s="93" t="s">
         <v>90</v>
       </c>
@@ -4294,17 +4294,17 @@
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="24" spans="1:14" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="127" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="107" t="s">
@@ -4345,9 +4345,9 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="88" t="s">
         <v>95</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="82"/>
-      <c r="K26" s="149">
+      <c r="K26" s="121">
         <f>AVERAGE(J27:J36)</f>
         <v>0.28509247506850549</v>
       </c>
@@ -4993,10 +4993,10 @@
         <v>100</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="122" t="s">
+      <c r="D59" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="122"/>
+      <c r="E59" s="130"/>
       <c r="F59" s="94"/>
       <c r="G59" s="28"/>
       <c r="H59" s="13"/>
@@ -5012,22 +5012,22 @@
       <c r="J60" s="94"/>
     </row>
     <row r="61" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
     </row>
     <row r="62" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="144"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="59" t="s">
         <v>78</v>
       </c>
@@ -5046,10 +5046,10 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B63" s="124" t="s">
+      <c r="B63" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="124"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="48" t="s">
         <v>6</v>
       </c>
@@ -5071,10 +5071,10 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="124"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="48" t="s">
         <v>7</v>
       </c>
@@ -5084,15 +5084,15 @@
       <c r="F64" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="136"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="143"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="124"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="48" t="s">
         <v>10</v>
       </c>
@@ -5102,15 +5102,15 @@
       <c r="F65" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="136"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="143"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="124"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="48" t="s">
         <v>124</v>
       </c>
@@ -5120,15 +5120,15 @@
       <c r="F66" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="136"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="143"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="124" t="s">
+      <c r="B67" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="124"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="48" t="s">
         <v>70</v>
       </c>
@@ -5138,9 +5138,9 @@
       <c r="F67" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="138"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="139"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="146"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" s="33"/>
@@ -5155,13 +5155,13 @@
     </row>
     <row r="69" spans="2:18" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="33"/>
-      <c r="D69" s="123" t="s">
+      <c r="D69" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="123"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
       <c r="I69" s="118"/>
       <c r="J69" s="118"/>
       <c r="K69" s="118"/>
@@ -5231,26 +5231,26 @@
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="123"/>
-      <c r="I74" s="123"/>
-      <c r="J74" s="123"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
     </row>
     <row r="75" spans="2:18" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="121" t="s">
+      <c r="C75" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="121" t="s">
+      <c r="D75" s="127" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="107" t="s">
@@ -5278,9 +5278,9 @@
       <c r="R75" s="45"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="121"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="121"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
       <c r="E76" s="57" t="s">
         <v>95</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>18</v>
       </c>
       <c r="J76" s="105"/>
-      <c r="K76" s="150" t="s">
+      <c r="K76" s="122" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="82"/>
-      <c r="K77" s="148">
+      <c r="K77" s="120">
         <f>AVERAGE(J78:J87)</f>
         <v>0.21486609016433347</v>
       </c>
@@ -5872,10 +5872,10 @@
         <v>73</v>
       </c>
       <c r="C109" s="26"/>
-      <c r="D109" s="122" t="s">
+      <c r="D109" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="E109" s="122"/>
+      <c r="E109" s="130"/>
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
       <c r="H109" s="13"/>
@@ -5887,22 +5887,22 @@
       <c r="F110" s="94"/>
     </row>
     <row r="111" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="123" t="s">
+      <c r="B111" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="123"/>
-      <c r="G111" s="123"/>
-      <c r="H111" s="123"/>
-      <c r="I111" s="123"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
     </row>
     <row r="112" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="144" t="s">
+      <c r="B112" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="144"/>
+      <c r="C112" s="126"/>
       <c r="D112" s="59" t="s">
         <v>78</v>
       </c>
@@ -5921,10 +5921,10 @@
       </c>
     </row>
     <row r="113" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B113" s="124" t="s">
+      <c r="B113" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="124"/>
+      <c r="C113" s="125"/>
       <c r="D113" s="104" t="s">
         <v>6</v>
       </c>
@@ -5946,10 +5946,10 @@
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="124" t="s">
+      <c r="B114" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="124"/>
+      <c r="C114" s="125"/>
       <c r="D114" s="104" t="s">
         <v>7</v>
       </c>
@@ -5959,15 +5959,15 @@
       <c r="F114" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="131"/>
-      <c r="H114" s="132"/>
-      <c r="I114" s="133"/>
+      <c r="G114" s="138"/>
+      <c r="H114" s="139"/>
+      <c r="I114" s="140"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="124" t="s">
+      <c r="B115" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="124"/>
+      <c r="C115" s="125"/>
       <c r="D115" s="104" t="s">
         <v>10</v>
       </c>
@@ -5977,15 +5977,15 @@
       <c r="F115" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G115" s="134"/>
-      <c r="H115" s="135"/>
-      <c r="I115" s="136"/>
+      <c r="G115" s="141"/>
+      <c r="H115" s="142"/>
+      <c r="I115" s="143"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="124" t="s">
+      <c r="B116" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="124"/>
+      <c r="C116" s="125"/>
       <c r="D116" s="104" t="s">
         <v>124</v>
       </c>
@@ -5995,15 +5995,15 @@
       <c r="F116" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="134"/>
-      <c r="H116" s="135"/>
-      <c r="I116" s="136"/>
+      <c r="G116" s="141"/>
+      <c r="H116" s="142"/>
+      <c r="I116" s="143"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="124" t="s">
+      <c r="B117" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="124"/>
+      <c r="C117" s="125"/>
       <c r="D117" s="104" t="s">
         <v>70</v>
       </c>
@@ -6013,9 +6013,9 @@
       <c r="F117" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="G117" s="137"/>
-      <c r="H117" s="138"/>
-      <c r="I117" s="139"/>
+      <c r="G117" s="144"/>
+      <c r="H117" s="145"/>
+      <c r="I117" s="146"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="33"/>
@@ -6024,14 +6024,14 @@
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="2:11" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D119" s="123" t="s">
+      <c r="D119" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="123"/>
-      <c r="I119" s="123"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="124"/>
+      <c r="G119" s="124"/>
+      <c r="H119" s="124"/>
+      <c r="I119" s="124"/>
       <c r="J119" s="12"/>
     </row>
     <row r="120" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -6042,10 +6042,10 @@
       <c r="E120" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F120" s="129" t="s">
+      <c r="F120" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="G120" s="130"/>
+      <c r="G120" s="136"/>
       <c r="H120" s="59" t="s">
         <v>80</v>
       </c>
@@ -6062,10 +6062,10 @@
       <c r="E121" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="F121" s="128" t="s">
+      <c r="F121" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="G121" s="128"/>
+      <c r="G121" s="137"/>
       <c r="H121" s="48">
         <f>(E116*E117^3)/12</f>
         <v>1.6206749999999996E-4</v>
@@ -6083,10 +6083,10 @@
       <c r="E122" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F122" s="128" t="s">
+      <c r="F122" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="G122" s="128"/>
+      <c r="G122" s="137"/>
       <c r="H122" s="93" t="s">
         <v>92</v>
       </c>
@@ -6105,26 +6105,26 @@
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="123" t="s">
+      <c r="B124" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="123"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="123"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+      <c r="F124" s="124"/>
+      <c r="G124" s="124"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="124"/>
       <c r="J124" s="101"/>
     </row>
     <row r="125" spans="2:11" s="106" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="121" t="s">
+      <c r="B125" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="C125" s="121" t="s">
+      <c r="C125" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D125" s="121" t="s">
+      <c r="D125" s="127" t="s">
         <v>4</v>
       </c>
       <c r="E125" s="107" t="s">
@@ -6148,9 +6148,9 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B126" s="145"/>
-      <c r="C126" s="145"/>
-      <c r="D126" s="145"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
       <c r="E126" s="75" t="s">
         <v>95</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="82"/>
-      <c r="K127" s="148">
+      <c r="K127" s="120">
         <f>AVERAGE(J128:J137)</f>
         <v>-0.44204827336140406</v>
       </c>
@@ -6804,11 +6804,11 @@
         <v>74</v>
       </c>
       <c r="C161" s="26"/>
-      <c r="D161" s="122" t="s">
+      <c r="D161" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
+      <c r="E161" s="130"/>
+      <c r="F161" s="130"/>
       <c r="G161" s="1"/>
       <c r="H161" s="13"/>
       <c r="I161" s="6"/>
@@ -6816,12 +6816,12 @@
     </row>
     <row r="163" spans="2:12" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="29"/>
-      <c r="D163" s="123" t="s">
+      <c r="D163" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="E163" s="123"/>
-      <c r="F163" s="123"/>
-      <c r="G163" s="123"/>
+      <c r="E163" s="124"/>
+      <c r="F163" s="124"/>
+      <c r="G163" s="124"/>
     </row>
     <row r="164" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B164" s="12"/>
@@ -6900,13 +6900,13 @@
     </row>
     <row r="170" spans="2:12" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B170" s="33"/>
-      <c r="D170" s="123" t="s">
+      <c r="D170" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="123"/>
-      <c r="F170" s="123"/>
-      <c r="G170" s="123"/>
-      <c r="H170" s="123"/>
+      <c r="E170" s="124"/>
+      <c r="F170" s="124"/>
+      <c r="G170" s="124"/>
+      <c r="H170" s="124"/>
     </row>
     <row r="171" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D171" s="58" t="s">
@@ -6978,28 +6978,28 @@
       <c r="L174" s="92"/>
     </row>
     <row r="175" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="123" t="s">
+      <c r="B175" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C175" s="123"/>
-      <c r="D175" s="123"/>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
+      <c r="C175" s="124"/>
+      <c r="D175" s="124"/>
+      <c r="E175" s="124"/>
+      <c r="F175" s="124"/>
+      <c r="G175" s="124"/>
+      <c r="H175" s="124"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="98"/>
       <c r="L175" s="92"/>
     </row>
     <row r="176" spans="2:12" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="145" t="s">
+      <c r="B176" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="C176" s="145" t="s">
+      <c r="C176" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="145" t="s">
+      <c r="D176" s="128" t="s">
         <v>4</v>
       </c>
       <c r="E176" s="107" t="s">
@@ -7021,9 +7021,9 @@
       <c r="L176" s="92"/>
     </row>
     <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="146"/>
-      <c r="C177" s="146"/>
-      <c r="D177" s="146"/>
+      <c r="B177" s="129"/>
+      <c r="C177" s="129"/>
+      <c r="D177" s="129"/>
       <c r="E177" s="109" t="s">
         <v>95</v>
       </c>
@@ -7506,10 +7506,10 @@
       <c r="B211" s="39"/>
       <c r="C211" s="44"/>
       <c r="D211" s="44"/>
-      <c r="E211" s="140" t="s">
+      <c r="E211" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="F211" s="141"/>
+      <c r="F211" s="132"/>
       <c r="G211" s="117">
         <v>7.46E-2</v>
       </c>
@@ -7517,10 +7517,10 @@
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="2:11" s="94" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E212" s="142" t="s">
+      <c r="E212" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="F212" s="143"/>
+      <c r="F212" s="134"/>
       <c r="G212" s="119">
         <f>(D188*(F166^2)*(3*F165-F166))/(6*H188*G172)</f>
         <v>21237378.184718572</v>
@@ -7840,42 +7840,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="G114:I117"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="G64:I67"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -7892,6 +7856,42 @@
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="G114:I117"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="G64:I67"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
